--- a/QA Class 31-DATA PAREMERTIZATION/bin/TEST_DATA/SAUCE_LOGIN.xlsx
+++ b/QA Class 31-DATA PAREMERTIZATION/bin/TEST_DATA/SAUCE_LOGIN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>USERNAME</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>performance_glitch_user</t>
+  </si>
+  <si>
+    <t>User1023345</t>
+  </si>
+  <si>
+    <t>User1023346</t>
+  </si>
+  <si>
+    <t>User1023347</t>
+  </si>
+  <si>
+    <t>User1023348</t>
+  </si>
+  <si>
+    <t>User1023349</t>
   </si>
 </sst>
 </file>
@@ -969,13 +984,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="$A6:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="21.1111111111111" customWidth="1"/>
@@ -1021,6 +1036,46 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
